--- a/Documentos gerais/organizacao_fortaleza_real.xlsx
+++ b/Documentos gerais/organizacao_fortaleza_real.xlsx
@@ -5,24 +5,25 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F9795456\OneDrive - Banco do Brasil S.A\Documentos\Fortaleza Real\Documentos gerais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Pengwin-WSL\home\wsl\organizacao_fortaleza_real\Documentos gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AFB72E-8A94-4D16-BC4E-069703F06DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CF9B8-5438-417F-8B84-96B7205EF200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orçamento Campori (Realizado)" sheetId="1" r:id="rId1"/>
     <sheet name="Pagamento Campori" sheetId="6" r:id="rId2"/>
-    <sheet name="Doações" sheetId="10" r:id="rId3"/>
-    <sheet name="Saídas" sheetId="11" r:id="rId4"/>
-    <sheet name="Caixa Do Clube" sheetId="9" r:id="rId5"/>
-    <sheet name="Lista de Membros" sheetId="3" r:id="rId6"/>
-    <sheet name="Vendas - 2024-11-24" sheetId="2" r:id="rId7"/>
-    <sheet name="Vendas - 27-10-2024" sheetId="4" r:id="rId8"/>
-    <sheet name="Vendas - 2024-12-15 (Pão mel)" sheetId="8" r:id="rId9"/>
-    <sheet name="Inventário de Bens" sheetId="5" r:id="rId10"/>
+    <sheet name="2025-01 Uniformes de Gala" sheetId="12" r:id="rId3"/>
+    <sheet name="Doações" sheetId="10" r:id="rId4"/>
+    <sheet name="Saídas" sheetId="11" r:id="rId5"/>
+    <sheet name="Caixa Do Clube" sheetId="9" r:id="rId6"/>
+    <sheet name="Lista de Membros" sheetId="3" r:id="rId7"/>
+    <sheet name="Vendas - 2024-11-24" sheetId="2" r:id="rId8"/>
+    <sheet name="Vendas - 27-10-2024" sheetId="4" r:id="rId9"/>
+    <sheet name="Vendas - 2024-12-15 (Pão mel)" sheetId="8" r:id="rId10"/>
+    <sheet name="Inventário de Bens" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,14 +39,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="KVJkXVW5xGgswmz/w56twxRGv0+A/59UvZnoLNGBlwA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="KVJkXVW5xGgswmz/w56twxRGv0+A/59UvZnoLNGBlwA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="337">
   <si>
     <t>Orçamento Inscrições Campori APV - 2025</t>
   </si>
@@ -1044,13 +1045,43 @@
   <si>
     <t>Compra de 2 pins de 
 excelência na CPB</t>
+  </si>
+  <si>
+    <t>Pagamento Da 1ª Parcela (Janeiro)</t>
+  </si>
+  <si>
+    <t>Pagamento Da 2ª Parcela (Fevereiro)</t>
+  </si>
+  <si>
+    <t>Pagamento Da 3ª Parcela (Março)</t>
+  </si>
+  <si>
+    <t>Pagamento Da 4ª Parcela (Abril)</t>
+  </si>
+  <si>
+    <t>Desbravador</t>
+  </si>
+  <si>
+    <t>Camisa</t>
+  </si>
+  <si>
+    <t>Calça ou saia</t>
+  </si>
+  <si>
+    <t>Observação</t>
+  </si>
+  <si>
+    <t>Valor Total a ser pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1165,8 +1196,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ADLaM Display"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,8 +1221,14 @@
         <bgColor rgb="FFA6E3B6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1292,12 +1334,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1377,7 +1432,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1427,6 +1481,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,6 +1490,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1998,11 +2057,11 @@
       </c>
       <c r="G9" s="4">
         <f>I6 - E15 - (B13 + B31) * B3</f>
-        <v>-2178.92</v>
+        <v>-2403.92</v>
       </c>
       <c r="I9" s="4">
         <f>F6 - E15</f>
-        <v>1421.08</v>
+        <v>1196.08</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,7 +2103,7 @@
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4">
         <f>G12 + H12 + I12 - G15</f>
-        <v>4029</v>
+        <v>4254</v>
       </c>
       <c r="G12" s="4">
         <v>509</v>
@@ -2055,7 +2114,7 @@
       </c>
       <c r="I12" s="4">
         <f>'Pagamento Campori'!J3</f>
-        <v>900</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,7 +2143,7 @@
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="4">
         <f>E9 + E12</f>
-        <v>5778.92</v>
+        <v>6003.92</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="4">
@@ -3142,6 +3201,2913 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E03B87B-FA34-4DC4-8B9F-643D585B6916}">
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:W104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7265625" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42">
+        <v>0</v>
+      </c>
+      <c r="F2" s="42">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42">
+        <f>SUM(D2:I2)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="39">
+        <f>SUM(J2:J101)</f>
+        <v>76</v>
+      </c>
+      <c r="W2">
+        <f>IF(L2="PAGO",J2,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="42">
+        <v>2</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42">
+        <f t="shared" ref="J3:J66" si="0">SUM(D3:I3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="O3" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="1">IF(L3="PAGO",J3,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42">
+        <v>1</v>
+      </c>
+      <c r="J4" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4" s="39">
+        <f>N2 * N17</f>
+        <v>760</v>
+      </c>
+      <c r="O4" s="39">
+        <f>N4 / 2</f>
+        <v>380</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="42">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0</v>
+      </c>
+      <c r="J5" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>316</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42">
+        <v>2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
+        <v>5</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>1</v>
+      </c>
+      <c r="I6" s="42">
+        <v>1</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>316</v>
+      </c>
+      <c r="W6">
+        <f>IF(L6="PAGO",J6,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>316</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42">
+        <v>0</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="39">
+        <f>SUM(W2:W101)</f>
+        <v>68</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42">
+        <v>0</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>1</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>316</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O9" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42">
+        <v>0</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>316</v>
+      </c>
+      <c r="N10" s="39">
+        <f>N8 * N17</f>
+        <v>680</v>
+      </c>
+      <c r="O10" s="39">
+        <f>N10 / 2</f>
+        <v>340</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42">
+        <v>1</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>1</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>316</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="42">
+        <v>0</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>1</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="s">
+        <v>316</v>
+      </c>
+      <c r="N12" s="39">
+        <f>N4 - N10</f>
+        <v>80</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42">
+        <v>0</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0</v>
+      </c>
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>1</v>
+      </c>
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>316</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42">
+        <v>0</v>
+      </c>
+      <c r="E14" s="42">
+        <v>1</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>316</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="42">
+        <v>0</v>
+      </c>
+      <c r="E15" s="42">
+        <v>2</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="L15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>316</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="42">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42">
+        <v>1</v>
+      </c>
+      <c r="F16" s="42">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <v>1</v>
+      </c>
+      <c r="J16" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>316</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42">
+        <v>0</v>
+      </c>
+      <c r="E17" s="42">
+        <v>3</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
+        <v>0</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="L17" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>316</v>
+      </c>
+      <c r="N17" s="39">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="42">
+        <v>1</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+      <c r="H18" s="42">
+        <v>1</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K18" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>316</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="42">
+        <v>1</v>
+      </c>
+      <c r="E19" s="42">
+        <v>2</v>
+      </c>
+      <c r="F19" s="42">
+        <v>1</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+      <c r="H19" s="42">
+        <v>1</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="L19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>316</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="42">
+        <v>0</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42">
+        <v>1</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>316</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="42">
+        <v>1</v>
+      </c>
+      <c r="E21" s="42">
+        <v>1</v>
+      </c>
+      <c r="F21" s="42">
+        <v>1</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K21" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L21" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>316</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="42">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42">
+        <v>1</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0</v>
+      </c>
+      <c r="G22" s="42">
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" t="s">
+        <v>316</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="42">
+        <v>0</v>
+      </c>
+      <c r="E23" s="42">
+        <v>1</v>
+      </c>
+      <c r="F23" s="42">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" t="s">
+        <v>316</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="42">
+        <v>0</v>
+      </c>
+      <c r="E24" s="42">
+        <v>1</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0</v>
+      </c>
+      <c r="I24" s="42">
+        <v>1</v>
+      </c>
+      <c r="J24" s="42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L24" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" t="s">
+        <v>316</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="42">
+        <v>1</v>
+      </c>
+      <c r="E25" s="42">
+        <v>1</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0</v>
+      </c>
+      <c r="H25" s="42">
+        <v>0</v>
+      </c>
+      <c r="I25" s="42">
+        <v>1</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" t="s">
+        <v>316</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="42">
+        <v>3</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0</v>
+      </c>
+      <c r="I26" s="42">
+        <v>1</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
+        <v>316</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42">
+        <v>1</v>
+      </c>
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0</v>
+      </c>
+      <c r="G27" s="42">
+        <v>2</v>
+      </c>
+      <c r="H27" s="42">
+        <v>2</v>
+      </c>
+      <c r="I27" s="42">
+        <v>0</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" t="s">
+        <v>316</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="42">
+        <v>0</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42">
+        <v>0</v>
+      </c>
+      <c r="I28" s="42">
+        <v>1</v>
+      </c>
+      <c r="J28" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>316</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="42">
+        <v>0</v>
+      </c>
+      <c r="E29" s="42">
+        <v>0</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+      <c r="H29" s="42">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L29" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" t="s">
+        <v>316</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42">
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0</v>
+      </c>
+      <c r="F30" s="42">
+        <v>1</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0</v>
+      </c>
+      <c r="H30" s="42">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42">
+        <v>0</v>
+      </c>
+      <c r="J30" s="42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L30" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" t="s">
+        <v>316</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="W42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="W43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="W44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="W45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="W46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="W47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="W48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="W49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="W50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="W51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="W52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="W53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="W54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="W55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="W56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="W57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="W58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="W59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="W60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="W61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="W62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="W63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="W64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="W65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="W66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42">
+        <f t="shared" ref="J67:J101" si="2">SUM(D67:I67)</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="W67">
+        <f t="shared" ref="W67:W101" si="3">IF(L67="PAGO",J67,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="W68">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="W69">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="W70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="W71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="W72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="W73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="W74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="W75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="W76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="W77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="W78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="W79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="W80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="W81">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="W82">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="W83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="W84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="W85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="W86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="W87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="W88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="W89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="W90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="W91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="W92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="39"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="W93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="W94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="W95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="W96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="W97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="W98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="W99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="44"/>
+      <c r="L100" s="44"/>
+      <c r="W100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="44"/>
+      <c r="L101" s="44"/>
+      <c r="W101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C103" s="39"/>
+      <c r="D103" s="39" t="str">
+        <f t="shared" ref="D103:I103" si="4">D1</f>
+        <v>PRESTÍGIO</v>
+      </c>
+      <c r="E103" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>DOCE DE LEITE</v>
+      </c>
+      <c r="F103" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>BRIGADEIRO</v>
+      </c>
+      <c r="G103" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>LIMÃO</v>
+      </c>
+      <c r="H103" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>MARACUJÁ</v>
+      </c>
+      <c r="I103" s="39" t="str">
+        <f t="shared" si="4"/>
+        <v>PAÇOCA</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C104" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="39">
+        <f t="shared" ref="D104:I104" si="5">SUM(D2:D101)</f>
+        <v>16</v>
+      </c>
+      <c r="E104" s="39">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="F104" s="39">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="G104" s="39">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H104" s="39">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I104" s="39">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>"""$L$2=""PAGO"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"PAGO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L101">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"PAGO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:G1000"/>
@@ -4446,10 +7412,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B911116-1FA0-4BF3-9658-711BD72B24ED}">
   <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4461,10 +7427,11 @@
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.453125" customWidth="1"/>
+    <col min="11" max="13" width="29.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>264</v>
       </c>
@@ -4481,7 +7448,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -4500,15 +7467,15 @@
       <c r="F2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <f>SUM(IF(B2="PAGO",1,0),IF(C2="PAGO",1,0),IF(D2="PAGO",1,0),IF(E2="PAGO",1,0),IF(F2="PAGO",1,0)) * B22</f>
         <v>225</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="41" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>55</v>
       </c>
@@ -4517,80 +7484,107 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
-      <c r="G3" s="36">
+      <c r="G3" s="35">
         <f>SUM(IF(B3="PAGO",1,0),IF(C3="PAGO",1,0),IF(D3="PAGO",1,0),IF(E3="PAGO",1,0),IF(F3="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="39">
         <f>SUM(G2:G20)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <f>SUM(IF(B4="PAGO",1,0),IF(C4="PAGO",1,0),IF(D4="PAGO",1,0),IF(E4="PAGO",1,0),IF(F4="PAGO",1,0)) * B22</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <f>SUM(IF(B5="PAGO",1,0),IF(C5="PAGO",1,0),IF(D5="PAGO",1,0),IF(E5="PAGO",1,0),IF(F5="PAGO",1,0)) * B22</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <f>SUM(IF(B6="PAGO",1,0),IF(C6="PAGO",1,0),IF(D6="PAGO",1,0),IF(E6="PAGO",1,0),IF(F6="PAGO",1,0)) * B22</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>330</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <f>SUM(IF(B7="PAGO",1,0),IF(C7="PAGO",1,0),IF(D7="PAGO",1,0),IF(E7="PAGO",1,0),IF(F7="PAGO",1,0)) * B22</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J7" s="58">
+        <f>J3 - 900</f>
+        <v>225</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -4609,12 +7603,12 @@
       <c r="F8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f>SUM(IF(B8="PAGO",1,0),IF(C8="PAGO",1,0),IF(D8="PAGO",1,0),IF(E8="PAGO",1,0),IF(F8="PAGO",1,0)) * B22</f>
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>72</v>
       </c>
@@ -4633,11 +7627,11 @@
       <c r="F9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>73</v>
       </c>
@@ -4656,27 +7650,29 @@
       <c r="F10" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="26" t="s">
+        <v>40</v>
+      </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f>SUM(IF(B11="PAGO",1,0),IF(C11="PAGO",1,0),IF(D11="PAGO",1,0),IF(E11="PAGO",1,0),IF(F11="PAGO",1,0)) * B22</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>75</v>
       </c>
@@ -4695,11 +7691,11 @@
       <c r="F12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>76</v>
       </c>
@@ -4708,12 +7704,12 @@
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <f>SUM(IF(B13="PAGO",1,0),IF(C13="PAGO",1,0),IF(D13="PAGO",1,0),IF(E13="PAGO",1,0),IF(F13="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>77</v>
       </c>
@@ -4722,12 +7718,12 @@
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <f>SUM(IF(B14="PAGO",1,0),IF(C14="PAGO",1,0),IF(D14="PAGO",1,0),IF(E14="PAGO",1,0),IF(F14="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>48</v>
       </c>
@@ -4736,19 +7732,19 @@
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <f>SUM(IF(B15="PAGO",1,0),IF(C15="PAGO",1,0),IF(D15="PAGO",1,0),IF(E15="PAGO",1,0),IF(F15="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <f>SUM(IF(B16="PAGO",1,0),IF(C16="PAGO",1,0),IF(D16="PAGO",1,0),IF(E16="PAGO",1,0),IF(F16="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
@@ -4762,7 +7758,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <f>SUM(IF(B17="PAGO",1,0),IF(C17="PAGO",1,0),IF(D17="PAGO",1,0),IF(E17="PAGO",1,0),IF(F17="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
@@ -4776,7 +7772,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <f>SUM(IF(B18="PAGO",1,0),IF(C18="PAGO",1,0),IF(D18="PAGO",1,0),IF(E18="PAGO",1,0),IF(F18="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
@@ -4800,7 +7796,7 @@
       <c r="F19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <f>SUM(IF(B19="PAGO",1,0),IF(C19="PAGO",1,0),IF(D19="PAGO",1,0),IF(E19="PAGO",1,0),IF(F19="PAGO",1,0)) * B22</f>
         <v>225</v>
       </c>
@@ -4812,13 +7808,13 @@
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <f>SUM(IF(B20="PAGO",1,0),IF(C20="PAGO",1,0),IF(D20="PAGO",1,0),IF(E20="PAGO",1,0),IF(F20="PAGO",1,0)) * B22</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>271</v>
       </c>
       <c r="B22">
@@ -4841,6 +7837,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F591EE84-C265-4613-94AC-9D19B5275EB5}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="64">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="64">
+        <v>0</v>
+      </c>
+      <c r="F2" s="64">
+        <f xml:space="preserve"> C2 + E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="I2" s="64">
+        <f>SUM(F2:F21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="64">
+        <v>0</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="64">
+        <v>0</v>
+      </c>
+      <c r="F3" s="64">
+        <f t="shared" ref="F3:F21" si="0" xml:space="preserve"> C3 + E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="64">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="64">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="64">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="64">
+        <v>0</v>
+      </c>
+      <c r="F5" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="64">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="64">
+        <v>0</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="64">
+        <v>0</v>
+      </c>
+      <c r="F7" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="64">
+        <v>0</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="64">
+        <v>0</v>
+      </c>
+      <c r="F8" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="64">
+        <v>0</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="64">
+        <v>0</v>
+      </c>
+      <c r="F9" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="64">
+        <v>0</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="64">
+        <v>0</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="64">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="64">
+        <v>0</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="64">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="64">
+        <v>0</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="64">
+        <v>0</v>
+      </c>
+      <c r="F13" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="64">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="64">
+        <v>0</v>
+      </c>
+      <c r="F14" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="64">
+        <v>0</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="64">
+        <v>0</v>
+      </c>
+      <c r="F15" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="64">
+        <v>0</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="64">
+        <v>0</v>
+      </c>
+      <c r="F16" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="64">
+        <v>0</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="64">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="64">
+        <v>0</v>
+      </c>
+      <c r="F18" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="64">
+        <v>0</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="64">
+        <v>0</v>
+      </c>
+      <c r="F19" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="64">
+        <v>0</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="64">
+        <v>0</v>
+      </c>
+      <c r="F20" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="64">
+        <v>0</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="64">
+        <v>0</v>
+      </c>
+      <c r="F21" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9E523C-A78D-4A75-8032-79C2A25A5133}">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -4858,641 +8229,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="51">
         <v>45643</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="52">
         <v>20</v>
       </c>
-      <c r="D2" s="58" t="str">
+      <c r="D2" s="57" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/1Ljlz1LIWH8aLkyTWUADcrozEUXPQaxH/view?usp=drivesdk", "comprovante")</f>
         <v>comprovante</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <f>SUM(C2:C101)</f>
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="56"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="57"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="57"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="56"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="57"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="57"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="57"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="56"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="57"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="57"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="57"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="56"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="57"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="56"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="57"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="56"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="56"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="57"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="57"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="56"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="56"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="56"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="57"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="57"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="56"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="57"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="57"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="57"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="56"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="57"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="57"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="56"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="57"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="56"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="57"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="56"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="57"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="56"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="57"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="56"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="57"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="57"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="56"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="57"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="57"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="56"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="57"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="56"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="56"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="56"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="56"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="56"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="56"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="56"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="57"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="56"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="56"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="56"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="56"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="57"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="56"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="56"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="57"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="56"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="56"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="56"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="57"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="56"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="57"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="56"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="57"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="56"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="57"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="56"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="57"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="56"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="57"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="56"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="57"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="56"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="57"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="56"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="57"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="56"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="57"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="56"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="57"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="56"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="56"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="57"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="56"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="57"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="56"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="57"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="56"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="57"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="56"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="57"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="56"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="57"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="56"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="57"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="56"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="57"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="56"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="57"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="56"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="57"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="57"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="56"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="57"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="56"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="57"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="56"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="57"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="56"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="57"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="56"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="57"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="56"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="57"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="56"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="57"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="56"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="57"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="56"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="57"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76837D04-12BA-46AC-A44F-EF82C96CAC8E}">
   <dimension ref="A1:F101"/>
   <sheetViews>
@@ -5510,646 +8881,646 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="55">
+      <c r="B2" s="54">
         <v>45643</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="55">
         <v>13.6</v>
       </c>
-      <c r="D2" s="58" t="str">
+      <c r="D2" s="57" t="str">
         <f>HYPERLINK("https://drive.google.com/file/d/1Lg2Nrejyk9Q6OdfeDQXBLwgLF2nhZLOr/view?usp=drivesdk", "comprovante")</f>
         <v>comprovante</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <f>SUM(C2:C101)</f>
         <v>13.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="A65" s="39"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="A66" s="39"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
+      <c r="A68" s="39"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
+      <c r="A69" s="39"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
+      <c r="A70" s="39"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
+      <c r="A79" s="39"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
+      <c r="A80" s="39"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB0390B-2C0B-476D-A2A6-D43F55F9C125}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6159,62 +9530,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
-        <v>0</v>
-      </c>
-      <c r="D2" s="40">
+      <c r="A2" s="39">
+        <v>0</v>
+      </c>
+      <c r="D2" s="39">
         <f>A2 + A5</f>
-        <v>660.4</v>
+        <v>740.4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.45">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <f>A8 + A11 - A14</f>
-        <v>660.4</v>
+        <v>740.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.45">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <f>Doações!F2</f>
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <f>-26 + 'Vendas - 2024-12-15 (Pão mel)'!N10</f>
-        <v>654</v>
+      <c r="A11" s="39">
+        <f>54 + 'Vendas - 2024-12-15 (Pão mel)'!N10</f>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.45">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="50" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <f>Saídas!F2</f>
         <v>13.6</v>
       </c>
@@ -6224,7 +9595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha3">
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6275,7 +9646,7 @@
       <c r="F2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>273</v>
       </c>
     </row>
@@ -6333,7 +9704,7 @@
       <c r="F5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6428,62 +9799,62 @@
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="40"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -6524,15 +9895,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Planilha2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6738,7 +10109,7 @@
       </c>
       <c r="K5" s="4">
         <f>SUM(X1:X60)</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
@@ -6784,7 +10155,7 @@
       </c>
       <c r="K6" s="5">
         <f>SUM(O2:O101)</f>
-        <v>1040</v>
+        <v>1115</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
@@ -6865,7 +10236,7 @@
       </c>
       <c r="K8" s="5">
         <f>K3-K6</f>
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
@@ -7283,7 +10654,7 @@
         <v>124</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="0"/>
@@ -7291,7 +10662,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <f>IF(F19=K11,D19,0)</f>
@@ -7299,7 +10670,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="25" x14ac:dyDescent="0.25">
@@ -7579,7 +10950,7 @@
         <v>90</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="0"/>
@@ -7587,7 +10958,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q27">
         <f>IF(F27=K11,D27,0)</f>
@@ -7595,7 +10966,7 @@
       </c>
       <c r="X27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
@@ -8532,7 +11903,7 @@
         <v>199</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="6"/>
@@ -8577,7 +11948,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q54">
         <f>IF(F53=K11,D53,0)</f>
@@ -8585,7 +11956,7 @@
       </c>
       <c r="X54">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
@@ -9942,7 +13313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:W1000"/>
@@ -12367,2911 +15738,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E03B87B-FA34-4DC4-8B9F-643D585B6916}">
-  <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:W104"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" customWidth="1"/>
-    <col min="23" max="23" width="2.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43">
-        <v>0</v>
-      </c>
-      <c r="F2" s="43">
-        <v>1</v>
-      </c>
-      <c r="G2" s="43">
-        <v>0</v>
-      </c>
-      <c r="H2" s="43">
-        <v>0</v>
-      </c>
-      <c r="I2" s="43">
-        <v>0</v>
-      </c>
-      <c r="J2" s="43">
-        <f>SUM(D2:I2)</f>
-        <v>2</v>
-      </c>
-      <c r="K2" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="40">
-        <f>SUM(J2:J101)</f>
-        <v>76</v>
-      </c>
-      <c r="W2">
-        <f>IF(L2="PAGO",J2,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="43">
-        <v>2</v>
-      </c>
-      <c r="E3" s="43">
-        <v>0</v>
-      </c>
-      <c r="F3" s="43">
-        <v>0</v>
-      </c>
-      <c r="G3" s="43">
-        <v>0</v>
-      </c>
-      <c r="H3" s="43">
-        <v>0</v>
-      </c>
-      <c r="I3" s="43">
-        <v>0</v>
-      </c>
-      <c r="J3" s="43">
-        <f t="shared" ref="J3:J66" si="0">SUM(D3:I3)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W66" si="1">IF(L3="PAGO",J3,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="43">
-        <v>0</v>
-      </c>
-      <c r="E4" s="43">
-        <v>0</v>
-      </c>
-      <c r="F4" s="43">
-        <v>0</v>
-      </c>
-      <c r="G4" s="43">
-        <v>0</v>
-      </c>
-      <c r="H4" s="43">
-        <v>0</v>
-      </c>
-      <c r="I4" s="43">
-        <v>1</v>
-      </c>
-      <c r="J4" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N4" s="40">
-        <f>N2 * N17</f>
-        <v>760</v>
-      </c>
-      <c r="O4" s="40">
-        <f>N4 / 2</f>
-        <v>380</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="43">
-        <v>0</v>
-      </c>
-      <c r="E5" s="43">
-        <v>2</v>
-      </c>
-      <c r="F5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0</v>
-      </c>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <v>0</v>
-      </c>
-      <c r="J5" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s">
-        <v>316</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="43">
-        <v>2</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
-        <v>5</v>
-      </c>
-      <c r="G6" s="43">
-        <v>0</v>
-      </c>
-      <c r="H6" s="43">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43">
-        <v>1</v>
-      </c>
-      <c r="J6" s="43">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>316</v>
-      </c>
-      <c r="W6">
-        <f>IF(L6="PAGO",J6,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="43">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <v>0</v>
-      </c>
-      <c r="J7" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="L7" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" t="s">
-        <v>316</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>0</v>
-      </c>
-      <c r="H8" s="43">
-        <v>0</v>
-      </c>
-      <c r="I8" s="43">
-        <v>0</v>
-      </c>
-      <c r="J8" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>316</v>
-      </c>
-      <c r="N8" s="40">
-        <f>SUM(W2:W101)</f>
-        <v>68</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="43">
-        <v>0</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="43">
-        <v>0</v>
-      </c>
-      <c r="H9" s="43">
-        <v>0</v>
-      </c>
-      <c r="I9" s="43">
-        <v>1</v>
-      </c>
-      <c r="J9" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" t="s">
-        <v>316</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O9" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="43">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0</v>
-      </c>
-      <c r="H10" s="43">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43">
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="L10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" s="40">
-        <f>N8 * N17</f>
-        <v>680</v>
-      </c>
-      <c r="O10" s="40">
-        <f>N10 / 2</f>
-        <v>340</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A11" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="43">
-        <v>1</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0</v>
-      </c>
-      <c r="G11" s="43">
-        <v>0</v>
-      </c>
-      <c r="H11" s="43">
-        <v>1</v>
-      </c>
-      <c r="I11" s="43">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L11" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" t="s">
-        <v>316</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="43">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="43">
-        <v>1</v>
-      </c>
-      <c r="I12" s="43">
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" t="s">
-        <v>316</v>
-      </c>
-      <c r="N12" s="40">
-        <f>N4 - N10</f>
-        <v>80</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="43">
-        <v>1</v>
-      </c>
-      <c r="I13" s="43">
-        <v>1</v>
-      </c>
-      <c r="J13" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K13" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" t="s">
-        <v>316</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>1</v>
-      </c>
-      <c r="F14" s="43">
-        <v>1</v>
-      </c>
-      <c r="G14" s="43">
-        <v>0</v>
-      </c>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-      <c r="I14" s="43">
-        <v>0</v>
-      </c>
-      <c r="J14" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" t="s">
-        <v>316</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>2</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="43">
-        <v>0</v>
-      </c>
-      <c r="I15" s="43">
-        <v>0</v>
-      </c>
-      <c r="J15" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="L15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s">
-        <v>316</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A16" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="43">
-        <v>1</v>
-      </c>
-      <c r="E16" s="43">
-        <v>1</v>
-      </c>
-      <c r="F16" s="43">
-        <v>1</v>
-      </c>
-      <c r="G16" s="43">
-        <v>1</v>
-      </c>
-      <c r="H16" s="43">
-        <v>0</v>
-      </c>
-      <c r="I16" s="43">
-        <v>1</v>
-      </c>
-      <c r="J16" s="43">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K16" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" t="s">
-        <v>316</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="43">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>3</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0</v>
-      </c>
-      <c r="H17" s="43">
-        <v>0</v>
-      </c>
-      <c r="I17" s="43">
-        <v>0</v>
-      </c>
-      <c r="J17" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s">
-        <v>316</v>
-      </c>
-      <c r="N17" s="40">
-        <v>10</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="43">
-        <v>1</v>
-      </c>
-      <c r="E18" s="43">
-        <v>0</v>
-      </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="43">
-        <v>0</v>
-      </c>
-      <c r="H18" s="43">
-        <v>1</v>
-      </c>
-      <c r="I18" s="43">
-        <v>0</v>
-      </c>
-      <c r="J18" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L18" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s">
-        <v>316</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="43">
-        <v>1</v>
-      </c>
-      <c r="E19" s="43">
-        <v>2</v>
-      </c>
-      <c r="F19" s="43">
-        <v>1</v>
-      </c>
-      <c r="G19" s="43">
-        <v>0</v>
-      </c>
-      <c r="H19" s="43">
-        <v>1</v>
-      </c>
-      <c r="I19" s="43">
-        <v>0</v>
-      </c>
-      <c r="J19" s="43">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
-        <v>316</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="43">
-        <v>1</v>
-      </c>
-      <c r="I20" s="43">
-        <v>0</v>
-      </c>
-      <c r="J20" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" t="s">
-        <v>316</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="43">
-        <v>1</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43">
-        <v>1</v>
-      </c>
-      <c r="G21" s="43">
-        <v>0</v>
-      </c>
-      <c r="H21" s="43">
-        <v>0</v>
-      </c>
-      <c r="I21" s="43">
-        <v>0</v>
-      </c>
-      <c r="J21" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" t="s">
-        <v>316</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="43">
-        <v>0</v>
-      </c>
-      <c r="E22" s="43">
-        <v>1</v>
-      </c>
-      <c r="F22" s="43">
-        <v>0</v>
-      </c>
-      <c r="G22" s="43">
-        <v>1</v>
-      </c>
-      <c r="H22" s="43">
-        <v>1</v>
-      </c>
-      <c r="I22" s="43">
-        <v>0</v>
-      </c>
-      <c r="J22" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" t="s">
-        <v>316</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43">
-        <v>1</v>
-      </c>
-      <c r="F23" s="43">
-        <v>1</v>
-      </c>
-      <c r="G23" s="43">
-        <v>0</v>
-      </c>
-      <c r="H23" s="43">
-        <v>0</v>
-      </c>
-      <c r="I23" s="43">
-        <v>0</v>
-      </c>
-      <c r="J23" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L23" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M23" t="s">
-        <v>316</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
-        <v>1</v>
-      </c>
-      <c r="F24" s="43">
-        <v>0</v>
-      </c>
-      <c r="G24" s="43">
-        <v>0</v>
-      </c>
-      <c r="H24" s="43">
-        <v>0</v>
-      </c>
-      <c r="I24" s="43">
-        <v>1</v>
-      </c>
-      <c r="J24" s="43">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L24" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" t="s">
-        <v>316</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="43">
-        <v>1</v>
-      </c>
-      <c r="E25" s="43">
-        <v>1</v>
-      </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="43">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
-        <v>1</v>
-      </c>
-      <c r="J25" s="43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" t="s">
-        <v>316</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="43">
-        <v>3</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43">
-        <v>1</v>
-      </c>
-      <c r="J26" s="43">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M26" t="s">
-        <v>316</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43">
-        <v>1</v>
-      </c>
-      <c r="E27" s="43">
-        <v>1</v>
-      </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="43">
-        <v>2</v>
-      </c>
-      <c r="H27" s="43">
-        <v>2</v>
-      </c>
-      <c r="I27" s="43">
-        <v>0</v>
-      </c>
-      <c r="J27" s="43">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="L27" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" t="s">
-        <v>316</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="43">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43">
-        <v>0</v>
-      </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="43">
-        <v>0</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0</v>
-      </c>
-      <c r="I28" s="43">
-        <v>1</v>
-      </c>
-      <c r="J28" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="L28" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>316</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="43">
-        <v>0</v>
-      </c>
-      <c r="E29" s="43">
-        <v>0</v>
-      </c>
-      <c r="F29" s="43">
-        <v>0</v>
-      </c>
-      <c r="G29" s="43">
-        <v>0</v>
-      </c>
-      <c r="H29" s="43">
-        <v>1</v>
-      </c>
-      <c r="I29" s="43">
-        <v>0</v>
-      </c>
-      <c r="J29" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L29" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" t="s">
-        <v>316</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="43">
-        <v>0</v>
-      </c>
-      <c r="E30" s="43">
-        <v>0</v>
-      </c>
-      <c r="F30" s="43">
-        <v>1</v>
-      </c>
-      <c r="G30" s="43">
-        <v>0</v>
-      </c>
-      <c r="H30" s="43">
-        <v>0</v>
-      </c>
-      <c r="I30" s="43">
-        <v>0</v>
-      </c>
-      <c r="J30" s="43">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="L30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" t="s">
-        <v>316</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="W37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="W38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="W40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="W41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="W42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="W43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="W44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="W45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="W46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="W47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="W48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="W49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="W50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="W51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="W52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="W53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="W54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="W55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="W56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="W57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="W58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="W59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="W60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="W61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="W62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="W63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="W64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="W65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="W66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43">
-        <f t="shared" ref="J67:J101" si="2">SUM(D67:I67)</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="W67">
-        <f t="shared" ref="W67:W101" si="3">IF(L67="PAGO",J67,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="W68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="W69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="W70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="W71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="W72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="W73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="W74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="W75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="W76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="W77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="W78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="W79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="W80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="40"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="W81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="W82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="W83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="W84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="W85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="W86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="W87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="W88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="W89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="W90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="W91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="W92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="W93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="W94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="W95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="W96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="W97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="40"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="W98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="W99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="W100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="W101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C103" s="40"/>
-      <c r="D103" s="40" t="str">
-        <f t="shared" ref="D103:I103" si="4">D1</f>
-        <v>PRESTÍGIO</v>
-      </c>
-      <c r="E103" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>DOCE DE LEITE</v>
-      </c>
-      <c r="F103" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>BRIGADEIRO</v>
-      </c>
-      <c r="G103" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>LIMÃO</v>
-      </c>
-      <c r="H103" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>MARACUJÁ</v>
-      </c>
-      <c r="I103" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>PAÇOCA</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C104" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D104" s="40">
-        <f t="shared" ref="D104:I104" si="5">SUM(D2:D101)</f>
-        <v>16</v>
-      </c>
-      <c r="E104" s="40">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="F104" s="40">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="G104" s="40">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H104" s="40">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="I104" s="40">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>"""$L$2=""PAGO"""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"PAGO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L101">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"PAGO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>